--- a/3a.1.PlasticsAndCompositesEngineering/5_ClassActivity/7_Wagner/DataForFcontrolResin_amended.xlsx
+++ b/3a.1.PlasticsAndCompositesEngineering/5_ClassActivity/7_Wagner/DataForFcontrolResin_amended.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01212611_itesm_mx/Documents/Documents/MNT_ITESM_courses/3a.1.PlasticsAndCompositesEngineering/5_ClassActivity/7_Wagner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{B60C5EAF-BC3B-EF4F-B4B5-08918BD48A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{39CA4FB6-A92F-4FDE-AA4A-B0170A13B9E1}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{B60C5EAF-BC3B-EF4F-B4B5-08918BD48A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D2BB9205-423F-45B4-A2CA-D9480908B12B}"/>
   <bookViews>
-    <workbookView xWindow="-6240" yWindow="1935" windowWidth="16485" windowHeight="11835" firstSheet="1" activeTab="2" xr2:uid="{972765B4-E428-144E-BD1D-BB8FDD8B8106}"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="16485" windowHeight="11835" firstSheet="1" activeTab="1" xr2:uid="{972765B4-E428-144E-BD1D-BB8FDD8B8106}"/>
   </bookViews>
   <sheets>
     <sheet name="Values of Lambda i abd ai" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.E+00"/>
-    <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -407,7 +407,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4003,8 +4003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2FBA68-BEE7-054D-97AF-5DAA6B6A5955}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5080,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DD932F-49F5-4948-B069-9ED37DDDDFDA}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC66"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -5967,7 +5967,7 @@
         <v>19.032485959801633</v>
       </c>
       <c r="AC2" s="25">
-        <f t="shared" ref="AC2:AC65" si="7">SUM(U2:AB2)/10</f>
+        <f>SUM(U2:AB2)/10</f>
         <v>7.9853287177738039</v>
       </c>
       <c r="AD2" s="1">
@@ -6033,7 +6033,7 @@
         <v>1E-3</v>
       </c>
       <c r="U3" s="16">
-        <f t="shared" ref="U2:U65" si="8">$D$6*($B$2/(L$2^2))*(1-EXP(-L$2*$T3)*(1-L$2*$T3*$D$2*$A$2*$J$3))+$D$8*($B$2/(L$3^2))*(1-EXP(-L$3*$T3)*(1-L$3*$T3*$D$4*$A$2*$J$3))</f>
+        <f t="shared" ref="U3:U65" si="7">$D$6*($B$2/(L$2^2))*(1-EXP(-L$2*$T3)*(1-L$2*$T3*$D$2*$A$2*$J$3))+$D$8*($B$2/(L$3^2))*(1-EXP(-L$3*$T3)*(1-L$3*$T3*$D$4*$A$2*$J$3))</f>
         <v>1.7999704306166727E-7</v>
       </c>
       <c r="V3" s="16">
@@ -6065,7 +6065,7 @@
         <v>126.42239305732687</v>
       </c>
       <c r="AC3" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AC2:AC65" si="8">SUM(U3:AB3)/10</f>
         <v>71.636436625773243</v>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
         <v>2E-3</v>
       </c>
       <c r="U4" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.5998817240840733E-7</v>
       </c>
       <c r="V4" s="16">
@@ -6123,7 +6123,7 @@
         <v>172.92907986385788</v>
       </c>
       <c r="AC4" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>131.45818906822086</v>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="U5" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5.3997338828269634E-7</v>
       </c>
       <c r="V5" s="16">
@@ -6181,7 +6181,7 @@
         <v>190.03737742118545</v>
       </c>
       <c r="AC5" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>184.86389457682043</v>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="U6" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7.1995269093501087E-7</v>
       </c>
       <c r="V6" s="16">
@@ -6239,7 +6239,7 @@
         <v>196.33096368783762</v>
       </c>
       <c r="AC6" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>234.02597292947661</v>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="U7" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8.9992608061318759E-7</v>
       </c>
       <c r="V7" s="16">
@@ -6297,7 +6297,7 @@
         <v>198.64616939280631</v>
       </c>
       <c r="AC7" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>279.91238132433102</v>
       </c>
     </row>
@@ -6323,7 +6323,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="U8" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0798935575515885E-6</v>
       </c>
       <c r="V8" s="16">
@@ -6355,7 +6355,7 @@
         <v>199.4978582758589</v>
       </c>
       <c r="AC8" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>323.0320305884016</v>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="U9" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.2598551220087474E-6</v>
       </c>
       <c r="V9" s="16">
@@ -6409,7 +6409,7 @@
         <v>199.81116691714479</v>
       </c>
       <c r="AC9" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>363.71051814122143</v>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="U10" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.4398107742136523E-6</v>
       </c>
       <c r="V10" s="16">
@@ -6455,7 +6455,7 @@
         <v>199.92642297682286</v>
       </c>
       <c r="AC10" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>402.19293522144955</v>
       </c>
     </row>
@@ -6469,7 +6469,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="U11" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.6197605144274999E-6</v>
       </c>
       <c r="V11" s="16">
@@ -6501,7 +6501,7 @@
         <v>199.96882193282281</v>
       </c>
       <c r="AC11" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>438.68292957178375</v>
       </c>
     </row>
@@ -6517,7 +6517,7 @@
         <v>0.01</v>
       </c>
       <c r="U12" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.799704342887307E-6</v>
       </c>
       <c r="V12" s="16">
@@ -6549,7 +6549,7 @@
         <v>199.98441912984148</v>
       </c>
       <c r="AC12" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>473.35820024283805</v>
       </c>
     </row>
@@ -6578,7 +6578,7 @@
         <v>0.02</v>
       </c>
       <c r="U13" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.5988175350744033E-6</v>
       </c>
       <c r="V13" s="16">
@@ -6610,7 +6610,7 @@
         <v>199.99349545629514</v>
       </c>
       <c r="AC13" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>748.61227918442898</v>
       </c>
     </row>
@@ -6637,7 +6637,7 @@
         <v>0.03</v>
       </c>
       <c r="U14" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5.3973398217700202E-6</v>
       </c>
       <c r="V14" s="16">
@@ -6669,7 +6669,7 @@
         <v>199.99349586822575</v>
       </c>
       <c r="AC14" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>948.5505679918482</v>
       </c>
     </row>
@@ -6694,7 +6694,7 @@
         <v>0.04</v>
       </c>
       <c r="U15" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7.1952714480984381E-6</v>
       </c>
       <c r="V15" s="16">
@@ -6726,7 +6726,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC15" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1111.9080511485872</v>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
         <v>0.05</v>
       </c>
       <c r="U16" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8.9926126590835144E-6</v>
       </c>
       <c r="V16" s="16">
@@ -6775,7 +6775,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC16" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1253.772129706809</v>
       </c>
     </row>
@@ -6792,7 +6792,7 @@
         <v>0.06</v>
       </c>
       <c r="U17" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0789363699664736E-5</v>
       </c>
       <c r="V17" s="16">
@@ -6824,7 +6824,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC17" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1380.4535337092282</v>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="U18" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.2585524814681172E-5</v>
       </c>
       <c r="V18" s="16">
@@ -6870,7 +6870,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC18" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1494.9625841943639</v>
       </c>
     </row>
@@ -6884,7 +6884,7 @@
         <v>0.08</v>
       </c>
       <c r="U19" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.4381096248890314E-5</v>
       </c>
       <c r="V19" s="16">
@@ -6916,7 +6916,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC19" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1599.0300817204293</v>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
         <v>0.09</v>
       </c>
       <c r="U20" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.6176078246943954E-5</v>
       </c>
       <c r="V20" s="16">
@@ -6962,7 +6962,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC20" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1693.8567849670103</v>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
         <v>0.1</v>
       </c>
       <c r="U21" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.797047105341232E-5</v>
       </c>
       <c r="V21" s="16">
@@ -7008,7 +7008,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC21" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1780.3947166616267</v>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
         <v>0.2</v>
       </c>
       <c r="U22" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.5882047319525312E-5</v>
       </c>
       <c r="V22" s="16">
@@ -7054,7 +7054,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC22" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2332.0220505713728</v>
       </c>
     </row>
@@ -7068,7 +7068,7 @@
         <v>0.3</v>
       </c>
       <c r="U23" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5.3734972766147985E-5</v>
       </c>
       <c r="V23" s="16">
@@ -7100,7 +7100,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC23" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2581.9943971576658</v>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
         <v>0.4</v>
       </c>
       <c r="U24" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7.1529490442376326E-5</v>
       </c>
       <c r="V24" s="16">
@@ -7146,7 +7146,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC24" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2716.8377917626563</v>
       </c>
     </row>
@@ -7160,7 +7160,7 @@
         <v>0.5</v>
       </c>
       <c r="U25" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8.926584248178943E-5</v>
       </c>
       <c r="V25" s="16">
@@ -7192,7 +7192,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC25" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2805.3837571988065</v>
       </c>
     </row>
@@ -7206,7 +7206,7 @@
         <v>0.6</v>
       </c>
       <c r="U26" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.0694427010573675E-4</v>
       </c>
       <c r="V26" s="16">
@@ -7238,7 +7238,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC26" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2873.2702975577604</v>
       </c>
     </row>
@@ -7252,7 +7252,7 @@
         <v>0.7</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.2456501362653925E-4</v>
       </c>
       <c r="V27" s="16">
@@ -7284,7 +7284,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC27" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2930.2578805070202</v>
       </c>
     </row>
@@ -7298,7 +7298,7 @@
         <v>0.8</v>
       </c>
       <c r="U28" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.4212831245070083E-4</v>
       </c>
       <c r="V28" s="16">
@@ -7330,7 +7330,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC28" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2980.2496486105856</v>
       </c>
     </row>
@@ -7344,7 +7344,7 @@
         <v>0.9</v>
       </c>
       <c r="U29" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.5963440508212775E-4</v>
       </c>
       <c r="V29" s="16">
@@ -7376,7 +7376,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC29" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3024.9691550202974</v>
       </c>
     </row>
@@ -7390,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="U30" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.7708352912530534E-4</v>
       </c>
       <c r="V30" s="16">
@@ -7422,7 +7422,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC30" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3065.3120624945623</v>
       </c>
     </row>
@@ -7436,7 +7436,7 @@
         <v>2</v>
       </c>
       <c r="U31" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.4849313344599185E-4</v>
       </c>
       <c r="V31" s="16">
@@ -7468,7 +7468,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC31" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3312.422033055072</v>
       </c>
     </row>
@@ -7482,7 +7482,7 @@
         <v>3</v>
       </c>
       <c r="U32" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5.1446068683737333E-4</v>
       </c>
       <c r="V32" s="16">
@@ -7514,7 +7514,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC32" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3413.4014777363618</v>
       </c>
     </row>
@@ -7528,7 +7528,7 @@
         <v>4</v>
       </c>
       <c r="U33" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.7520944205169914E-4</v>
       </c>
       <c r="V33" s="16">
@@ -7560,7 +7560,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC33" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3460.7702204632392</v>
       </c>
     </row>
@@ -7574,7 +7574,7 @@
         <v>5</v>
       </c>
       <c r="U34" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8.3095433157469941E-4</v>
       </c>
       <c r="V34" s="16">
@@ -7606,7 +7606,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC34" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3487.6492412890634</v>
       </c>
     </row>
@@ -7620,7 +7620,7 @@
         <v>6</v>
       </c>
       <c r="U35" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9.8190225840068431E-4</v>
       </c>
       <c r="V35" s="16">
@@ -7652,7 +7652,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC35" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3506.0120650215076</v>
       </c>
     </row>
@@ -7666,7 +7666,7 @@
         <v>7</v>
       </c>
       <c r="U36" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.1282523770545674E-3</v>
       </c>
       <c r="V36" s="16">
@@ -7698,7 +7698,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC36" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3520.2769689024158</v>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
         <v>8</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.2701963651788742E-3</v>
       </c>
       <c r="V37" s="16">
@@ -7744,7 +7744,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC37" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3532.1509361573617</v>
       </c>
     </row>
@@ -7758,7 +7758,7 @@
         <v>9</v>
       </c>
       <c r="U38" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.4079186859935438E-3</v>
       </c>
       <c r="V38" s="16">
@@ -7790,7 +7790,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC38" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3542.3578798004869</v>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
         <v>10</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.5415968419265392E-3</v>
       </c>
       <c r="V39" s="16">
@@ -7836,7 +7836,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC39" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3551.2566784277888</v>
       </c>
     </row>
@@ -7850,7 +7850,7 @@
         <v>20</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.690489663651536E-3</v>
       </c>
       <c r="V40" s="16">
@@ -7882,7 +7882,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC40" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3598.5911499599088</v>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
         <v>30</v>
       </c>
       <c r="U41" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.5869941313225115E-3</v>
       </c>
       <c r="V41" s="16">
@@ -7928,7 +7928,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC41" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3612.8180129347174</v>
       </c>
     </row>
@@ -7942,7 +7942,7 @@
         <v>40</v>
       </c>
       <c r="U42" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.3253784091223215E-3</v>
       </c>
       <c r="V42" s="16">
@@ -7974,7 +7974,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC42" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3617.6162117858926</v>
       </c>
     </row>
@@ -7988,7 +7988,7 @@
         <v>50</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.9680543763145398E-3</v>
       </c>
       <c r="V43" s="16">
@@ -8020,7 +8020,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC43" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3619.5404177932678</v>
       </c>
     </row>
@@ -8034,7 +8034,7 @@
         <v>60</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5.5555690738822031E-3</v>
       </c>
       <c r="V44" s="16">
@@ -8066,7 +8066,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC44" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3620.510529528904</v>
       </c>
     </row>
@@ -8080,7 +8080,7 @@
         <v>70</v>
       </c>
       <c r="U45" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.1136049029177804E-3</v>
       </c>
       <c r="V45" s="16">
@@ -8112,7 +8112,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC45" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3621.1284330119538</v>
       </c>
     </row>
@@ -8126,7 +8126,7 @@
         <v>80</v>
       </c>
       <c r="U46" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6.6578564030273322E-3</v>
       </c>
       <c r="V46" s="16">
@@ -8158,7 +8158,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC46" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3621.5973208031196</v>
       </c>
     </row>
@@ -8172,7 +8172,7 @@
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7.1974052944170936E-3</v>
       </c>
       <c r="V47" s="16">
@@ -8204,7 +8204,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC47" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3621.990999911674</v>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
         <v>100</v>
       </c>
       <c r="U48" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7.7370379556874281E-3</v>
       </c>
       <c r="V48" s="16">
@@ -8250,7 +8250,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC48" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3622.3382557298</v>
       </c>
     </row>
@@ -8264,7 +8264,7 @@
         <v>200</v>
       </c>
       <c r="U49" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.3152471427106571E-2</v>
       </c>
       <c r="V49" s="16">
@@ -8296,7 +8296,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC49" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3624.4453393977246</v>
       </c>
     </row>
@@ -8310,7 +8310,7 @@
         <v>300</v>
       </c>
       <c r="U50" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.8026209358001963E-2</v>
       </c>
       <c r="V50" s="16">
@@ -8342,7 +8342,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC50" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.1929040498558</v>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
         <v>400</v>
       </c>
       <c r="U51" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.209579715592885E-2</v>
       </c>
       <c r="V51" s="16">
@@ -8388,7 +8388,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC51" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.4456107377218</v>
       </c>
     </row>
@@ -8402,7 +8402,7 @@
         <v>500</v>
       </c>
       <c r="U52" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.5430070698197093E-2</v>
       </c>
       <c r="V52" s="16">
@@ -8434,7 +8434,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC52" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.5350131552141</v>
       </c>
     </row>
@@ -8448,7 +8448,7 @@
         <v>600</v>
       </c>
       <c r="U53" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.8130328934199797E-2</v>
       </c>
       <c r="V53" s="16">
@@ -8480,7 +8480,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC53" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.5700957552931</v>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
         <v>700</v>
       </c>
       <c r="U54" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.0288615229256115E-2</v>
       </c>
       <c r="V54" s="16">
@@ -8526,7 +8526,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC54" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.5860496570967</v>
       </c>
     </row>
@@ -8540,7 +8540,7 @@
         <v>800</v>
       </c>
       <c r="U55" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.1985296181032456E-2</v>
       </c>
       <c r="V55" s="16">
@@ -8572,7 +8572,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC55" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.5944700596192</v>
       </c>
     </row>
@@ -8586,7 +8586,7 @@
         <v>900</v>
       </c>
       <c r="U56" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.329020343854909E-2</v>
       </c>
       <c r="V56" s="16">
@@ -8618,7 +8618,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC56" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.59940019848</v>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
         <v>1000</v>
       </c>
       <c r="U57" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.4263907890400971E-2</v>
       </c>
       <c r="V57" s="16">
@@ -8664,7 +8664,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC57" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.6024184670737</v>
       </c>
     </row>
@@ -8678,7 +8678,7 @@
         <v>2000</v>
       </c>
       <c r="U58" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.4422402841355365E-2</v>
       </c>
       <c r="V58" s="16">
@@ -8710,7 +8710,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC58" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.6046251970956</v>
       </c>
     </row>
@@ -8724,7 +8724,7 @@
         <v>3000</v>
       </c>
       <c r="U59" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.0202533462677147E-2</v>
       </c>
       <c r="V59" s="16">
@@ -8756,7 +8756,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC59" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.6025780895557</v>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
         <v>4000</v>
       </c>
       <c r="U60" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.7179448158743506E-2</v>
       </c>
       <c r="V60" s="16">
@@ -8802,7 +8802,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC60" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.6019521822805</v>
       </c>
     </row>
@@ -8816,7 +8816,7 @@
         <v>5000</v>
       </c>
       <c r="U61" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.5562371707942722E-2</v>
       </c>
       <c r="V61" s="16">
@@ -8848,7 +8848,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC61" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.6017440684614</v>
       </c>
     </row>
@@ -8862,7 +8862,7 @@
         <v>6000</v>
       </c>
       <c r="U62" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.479434299192574E-2</v>
       </c>
       <c r="V62" s="16">
@@ -8894,7 +8894,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC62" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.6016614071859</v>
       </c>
     </row>
@@ -8908,7 +8908,7 @@
         <v>7000</v>
       </c>
       <c r="U63" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.445251806207251E-2</v>
       </c>
       <c r="V63" s="16">
@@ -8940,7 +8940,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC63" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.6016265339795</v>
       </c>
     </row>
@@ -8954,7 +8954,7 @@
         <v>8000</v>
       </c>
       <c r="U64" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.4306500398927278E-2</v>
       </c>
       <c r="V64" s="16">
@@ -8986,7 +8986,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC64" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.601611854182</v>
       </c>
     </row>
@@ -9000,7 +9000,7 @@
         <v>9000</v>
       </c>
       <c r="U65" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.4245866168981712E-2</v>
       </c>
       <c r="V65" s="16">
@@ -9032,7 +9032,7 @@
         <v>199.99349586824445</v>
       </c>
       <c r="AC65" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3625.601605782198</v>
       </c>
     </row>
